--- a/FB_VSPMODEL1.xlsx
+++ b/FB_VSPMODEL1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81fc594c9db83319/Desktop/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{21A71C37-B4B6-E648-957E-7BAC287A4C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3C0AA0-6D60-4E61-BA8A-8BE2488C590C}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{21A71C37-B4B6-E648-957E-7BAC287A4C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{942D81BF-DF18-4F7D-A217-128FB76F31BF}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A68D8F6D-C76E-F640-8B99-57F5298096C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A68D8F6D-C76E-F640-8B99-57F5298096C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Manually picked first break of traces:</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,10 +89,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,14 +388,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEB0B9E-FDF1-254E-A9EC-35AD9248F7A1}">
-  <dimension ref="A2:BR2"/>
+  <dimension ref="A1:BR2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>127</v>
